--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
@@ -32,6 +32,9 @@
     <x:t>ColumnName:</x:t>
   </x:si>
   <x:si>
+    <x:t>Key</x:t>
+  </x:si>
+  <x:si>
     <x:t>Name</x:t>
   </x:si>
   <x:si>
@@ -41,16 +44,13 @@
     <x:t>ItemTypeId</x:t>
   </x:si>
   <x:si>
-    <x:t>Key</x:t>
-  </x:si>
-  <x:si>
     <x:t>Type:</x:t>
   </x:si>
   <x:si>
+    <x:t>Int32</x:t>
+  </x:si>
+  <x:si>
     <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Int32</x:t>
   </x:si>
   <x:si>
     <x:t>Require:</x:t>
@@ -478,7 +478,7 @@
       <x:c r="E6" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G6" s="1" t="s">
+      <x:c r="F6" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
@@ -490,13 +490,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>11</x:v>
+      <x:c r="F7" s="0" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
@@ -512,7 +512,7 @@
       <x:c r="E8" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -523,15 +523,15 @@
       <x:c r="C9" s="2" t="s"/>
       <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="2" t="s"/>
-      <x:c r="G9" s="2" t="s"/>
+      <x:c r="F9" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:dataValidations count="2">
-    <x:dataValidation type="none" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="C10:D10">
+    <x:dataValidation type="decimal" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="C10:C10 F10:F10">
       <x:formula1/>
       <x:formula2/>
     </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="E10:E10 G10:G10">
+    <x:dataValidation type="none" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="D10:E10">
       <x:formula1/>
       <x:formula2/>
     </x:dataValidation>
@@ -585,7 +585,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -619,11 +619,11 @@
     </x:row>
   </x:sheetData>
   <x:dataValidations count="2">
-    <x:dataValidation type="none" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="C10:C10">
+    <x:dataValidation type="decimal" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="C10:C10">
       <x:formula1/>
       <x:formula2/>
     </x:dataValidation>
-    <x:dataValidation type="decimal" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="D10:D10">
+    <x:dataValidation type="none" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="D10:D10">
       <x:formula1/>
       <x:formula2/>
     </x:dataValidation>

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
@@ -440,7 +440,7 @@
   <x:dimension ref="A1:G10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozenSplit"/>
+      <x:pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozenSplit"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="20.710625" defaultRowHeight="15"/>
@@ -552,7 +552,7 @@
   <x:dimension ref="A1:D10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozenSplit"/>
+      <x:pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozenSplit"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="20.710625" defaultRowHeight="15"/>

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -74,10 +74,19 @@
     <t xml:space="preserve">Context:</t>
   </si>
   <si>
+    <t xml:space="preserve">お宝の地図</t>
+  </si>
+  <si>
     <t xml:space="preserve">Special</t>
   </si>
   <si>
+    <t xml:space="preserve">薬草</t>
+  </si>
+  <si>
     <t xml:space="preserve">Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とうぞくのかぎ</t>
   </si>
   <si>
     <t xml:space="preserve">MasterBuilder.Examples.ItemType, MasterBuilder.Examples, Version=0.0.0.0, Culture=neutral, PublicKeyToken=null</t>
@@ -289,17 +298,17 @@
   </sheetPr>
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G12" activeCellId="1" sqref="C14:D14 G12"/>
+      <selection pane="bottomRight" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.68359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.73"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -386,30 +395,48 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="4" t="n">
         <f aca="true">INDEX(OFFSET(ItemType!$C$10,0,0,COUNTA(ItemType!C:C),2), MATCH($G10, OFFSET(ItemType!$D$10,0,0,COUNTA(ItemType!D:D),1), 0), 1)</f>
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="F11" s="0" t="n">
         <f aca="true">INDEX(OFFSET(ItemType!$C$10,0,0,COUNTA(ItemType!C:C),2), MATCH($G11, OFFSET(ItemType!$D$10,0,0,COUNTA(ItemType!D:D),1), 0), 1)</f>
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="F12" s="0" t="n">
         <f aca="true">INDEX(OFFSET(ItemType!$C$10,0,0,COUNTA(ItemType!C:C),2), MATCH($G12, OFFSET(ItemType!$D$10,0,0,COUNTA(ItemType!D:D),1), 0), 1)</f>
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -444,17 +471,17 @@
   </sheetPr>
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C14" activeCellId="0" sqref="C14:D14"/>
+      <selection pane="bottomRight" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.68359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.73"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -462,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -518,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -526,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -534,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -542,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <x:si>
     <x:t>ClassName:</x:t>
   </x:si>
@@ -51,7 +51,10 @@
     <x:t>ItemTypeId</x:t>
   </x:si>
   <x:si>
-    <x:t>D_ItemTypeId</x:t>
+    <x:t>D__ItemTypeId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tag</x:t>
   </x:si>
   <x:si>
     <x:t>Type:</x:t>
@@ -72,6 +75,9 @@
     <x:t>yes</x:t>
   </x:si>
   <x:si>
+    <x:t>no</x:t>
+  </x:si>
+  <x:si>
     <x:t>Context:</x:t>
   </x:si>
   <x:si>
@@ -82,6 +88,9 @@
   </x:si>
   <x:si>
     <x:t>Special</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{“func”: “callback_1229874”}</x:t>
   </x:si>
   <x:si>
     <x:t>薬草</x:t>
@@ -173,7 +182,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="24">
+  <x:cellStyleXfs count="26">
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
@@ -206,11 +215,17 @@
     <x:xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="9">
+  <x:cellXfs count="13">
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
@@ -223,10 +238,18 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
     <x:xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
     </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <x:protection locked="true" hidden="false"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <x:protection locked="true" hidden="false"/>
@@ -243,7 +266,15 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -608,7 +639,7 @@
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="false"/>
   </x:sheetPr>
-  <x:dimension ref="B2:G12"/>
+  <x:dimension ref="B2:H12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" defaultGridColor="true" colorId="64" workbookViewId="0">
       <x:pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozenSplit"/>
@@ -619,10 +650,10 @@
   <x:sheetFormatPr defaultColWidth="20.710625" defaultRowHeight="15" zeroHeight="false"/>
   <x:cols>
     <x:col min="1" max="1" width="2.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="7" width="20.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="8" width="20.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:7" ht="15" customHeight="1" outlineLevel="0">
+    <x:row r="2" spans="1:8" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -630,7 +661,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7" ht="15" customHeight="1" outlineLevel="0">
+    <x:row r="3" spans="1:8" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="B3" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
@@ -638,126 +669,142 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:7" ht="15" customHeight="1" outlineLevel="0">
-      <x:c r="B6" s="7" t="s">
+    <x:row r="6" spans="1:8" ht="15" customHeight="1" outlineLevel="0">
+      <x:c r="B6" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C6" s="7" t="s">
+      <x:c r="C6" s="9" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D6" s="7" t="s">
+      <x:c r="D6" s="9" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E6" s="7" t="s">
+      <x:c r="E6" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F6" s="7" t="s">
+      <x:c r="F6" s="9" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="G6" s="7" t="s">
+      <x:c r="G6" s="9" t="s">
         <x:v>9</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7" ht="15" customHeight="1" outlineLevel="0">
+      <x:c r="H6" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="B7" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E7" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="G7" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:7" ht="15" customHeight="1" outlineLevel="0">
+    <x:row r="8" spans="1:8" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="B8" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7" ht="15" customHeight="1" outlineLevel="0">
-      <x:c r="B9" s="8" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C9" s="8" t="s"/>
-      <x:c r="D9" s="8" t="s"/>
-      <x:c r="E9" s="8" t="s"/>
-      <x:c r="F9" s="8" t="s"/>
-      <x:c r="G9" s="8" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:7" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="G8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8" ht="15" customHeight="1" outlineLevel="0">
+      <x:c r="B9" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C9" s="11" t="s"/>
+      <x:c r="D9" s="11" t="s"/>
+      <x:c r="E9" s="11" t="s"/>
+      <x:c r="F9" s="11" t="s"/>
+      <x:c r="G9" s="11" t="s"/>
+      <x:c r="H9" s="12" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:8" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="C10" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="0">
         <x:f>INDEX(OFFSET(ItemType!$C$10,0,0,COUNTA(ItemType!C:C),2), MATCH($G10, OFFSET(ItemType!$D$10,0,0,COUNTA(ItemType!D:D),1), 0), 1)</x:f>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:7" ht="13.8" customHeight="1" outlineLevel="0">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="C11" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>18</x:v>
       </x:c>
       <x:c r="F11" s="0">
         <x:f>INDEX(OFFSET(ItemType!$C$10,0,0,COUNTA(ItemType!C:C),2), MATCH($G11, OFFSET(ItemType!$D$10,0,0,COUNTA(ItemType!D:D),1), 0), 1)</x:f>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7" ht="13.8" customHeight="1" outlineLevel="0">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="C12" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F12" s="0">
         <x:f>INDEX(OFFSET(ItemType!$C$10,0,0,COUNTA(ItemType!C:C),2), MATCH($G12, OFFSET(ItemType!$D$10,0,0,COUNTA(ItemType!D:D),1), 0), 1)</x:f>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:dataValidations count="3">
+  <x:dataValidations count="4">
     <x:dataValidation type="none" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="C10:E10">
       <x:formula1>-2147483648</x:formula1>
       <x:formula2>2147483647</x:formula2>
@@ -769,6 +816,10 @@
     <x:dataValidation type="whole" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="F10:F10">
       <x:formula1>-2147483648</x:formula1>
       <x:formula2>2147483647</x:formula2>
+    </x:dataValidation>
+    <x:dataValidation type="none" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="" error="" promptTitle="" prompt="" sqref="H10:H10">
+      <x:formula1>0</x:formula1>
+      <x:formula2>0</x:formula2>
     </x:dataValidation>
   </x:dataValidations>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="true"/>
@@ -807,7 +858,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" ht="15" customHeight="1" outlineLevel="0">
@@ -819,51 +870,51 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4" ht="15" customHeight="1" outlineLevel="0">
-      <x:c r="B6" s="7" t="s">
+      <x:c r="B6" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C6" s="7" t="s">
+      <x:c r="C6" s="9" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D6" s="7" t="s">
+      <x:c r="D6" s="9" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="B7" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="B8" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4" ht="15" customHeight="1" outlineLevel="0">
-      <x:c r="B9" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C9" s="8" t="s"/>
-      <x:c r="D9" s="8" t="s"/>
+      <x:c r="B9" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C9" s="11" t="s"/>
+      <x:c r="D9" s="11" t="s"/>
     </x:row>
     <x:row r="10" spans="1:4" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="C10" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4" ht="15" customHeight="1" outlineLevel="0">
@@ -871,7 +922,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4" ht="15" customHeight="1" outlineLevel="0">
@@ -879,7 +930,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4" ht="15" customHeight="1" outlineLevel="0">
@@ -887,7 +938,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4" ht="15" customHeight="1" outlineLevel="0"/>

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="21">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -138,6 +138,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.4375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.4375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.4375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.4375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.4375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.4375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="0.78125" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
@@ -268,6 +278,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.4375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.4375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="0.78125" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="C3" t="s">

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="24">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -134,7 +134,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,13 +151,225 @@
         <bgColor indexed="49"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="64"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <diagonal/>
+    </border>
+    <border>
+      <right/>
+      <top/>
+      <diagonal/>
+    </border>
+    <border>
+      <top/>
+      <diagonal/>
+    </border>
+    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -186,7 +398,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment/>
       <protection locked="1"/>
@@ -196,6 +408,82 @@
       <protection locked="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="25" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="29" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection locked="1"/>
     </xf>
@@ -225,13 +513,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="23.4375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.4375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.4375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.4375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.4375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.4375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.4375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.4375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.4375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.4375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="15">
@@ -251,25 +539,25 @@
       </c>
     </row>
     <row r="7" ht="15">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -320,23 +608,23 @@
       </c>
     </row>
     <row r="10" ht="15">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H10"/>
-      <c r="I10" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -383,9 +671,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="23.4375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.4375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.4375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="15">
@@ -405,13 +693,13 @@
       </c>
     </row>
     <row r="7" ht="15">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -438,13 +726,13 @@
       </c>
     </row>
     <row r="10" ht="15">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="21" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
@@ -20,8 +20,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0">
+      <text>
+        <t xml:space="preserve">empty description</t>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <t xml:space="preserve">empty description</t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0">
+      <text>
+        <t xml:space="preserve">empty description</t>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0">
+      <text>
+        <t xml:space="preserve">empty description</t>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0">
+      <text>
+        <t xml:space="preserve">empty description</t>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0">
+      <text>
+        <t xml:space="preserve">empty description</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0">
+      <text>
+        <t xml:space="preserve">empty description</t>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <t xml:space="preserve">empty description</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="24">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -134,7 +194,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,111 +202,19 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="42"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="49"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="64"/>
-        <bgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="49"/>
-        <bgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="42"/>
-        <bgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="49"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -256,40 +224,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
-        <bgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-        <bgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-        <bgColor indexed="49"/>
+        <bgColor indexed="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -300,7 +235,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="41"/>
-        <bgColor indexed="49"/>
+        <bgColor indexed="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -398,20 +333,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment/>
       <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection locked="1"/>
     </xf>
@@ -419,71 +362,7 @@
       <alignment/>
       <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="25" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="25" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="27" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="29" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection locked="1"/>
     </xf>
@@ -497,6 +376,14 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,138 +398,138 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.4375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.4375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.4375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.4375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.4375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="0" customWidth="1"/>
+    <col min="4" max="4" width="23.4375" style="0" customWidth="1"/>
+    <col min="5" max="5" width="23.4375" style="0" customWidth="1"/>
+    <col min="6" max="6" width="23.4375" style="0" customWidth="1"/>
+    <col min="7" max="7" width="23.4375" style="0" customWidth="1"/>
+    <col min="8" max="8" width="23.4375" style="0" customWidth="1"/>
+    <col min="9" max="9" width="23.4375" style="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="15">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="15">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" ht="15">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" ht="15">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="15">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" ht="15">
-      <c r="D11" s="1">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>1</v>
       </c>
       <c r="H11"/>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -654,6 +541,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -669,70 +558,70 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.4375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="0" customWidth="1"/>
+    <col min="4" max="4" width="23.4375" style="0" customWidth="1"/>
+    <col min="5" max="5" width="23.4375" style="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="15">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="15">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="15">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="15">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" ht="15">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -748,5 +637,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
@@ -1,59 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Item" sheetId="1" r:id="rId2"/>
-    <sheet name="ItemType" sheetId="2" r:id="rId3"/>
+    <sheet name="Item" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ItemType" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1ExcelA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="D7" authorId="0">
       <text>
-        <t xml:space="preserve">empty description</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">empty description</t>
+        </r>
       </text>
     </comment>
     <comment ref="E7" authorId="0">
       <text>
-        <t xml:space="preserve">empty description</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">empty description</t>
+        </r>
       </text>
     </comment>
     <comment ref="F7" authorId="0">
       <text>
-        <t xml:space="preserve">empty description</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">empty description</t>
+        </r>
       </text>
     </comment>
     <comment ref="G7" authorId="0">
       <text>
-        <t xml:space="preserve">empty description</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">empty description</t>
+        </r>
       </text>
     </comment>
     <comment ref="H7" authorId="0">
       <text>
-        <t xml:space="preserve">empty description</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">empty description</t>
+        </r>
       </text>
     </comment>
     <comment ref="I7" authorId="0">
       <text>
-        <t xml:space="preserve">empty description</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">empty description</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -61,19 +109,35 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="D7" authorId="0">
       <text>
-        <t xml:space="preserve">empty description</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">empty description</t>
+        </r>
       </text>
     </comment>
     <comment ref="E7" authorId="0">
       <text>
-        <t xml:space="preserve">empty description</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">empty description</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -81,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -152,13 +216,13 @@
     <t xml:space="preserve">MasterBuilder.Examples.ItemType, MasterBuilder.Examples, Version=0.0.0.0, Culture=neutral, PublicKeyToken=null</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
@@ -194,7 +258,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,158 +277,65 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-        <bgColor indexed="0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
-    <border>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <diagonal/>
-    </border>
-    <border>
-      <right/>
-      <top/>
-      <diagonal/>
-    </border>
-    <border>
-      <top/>
-      <diagonal/>
-    </border>
-    <border>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment/>
-      <protection locked="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -378,38 +349,28 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C3:I11"/>
+  <dimension ref="C3:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="15.625" style="0" customWidth="1"/>
-    <col min="4" max="4" width="23.4375" style="0" customWidth="1"/>
-    <col min="5" max="5" width="23.4375" style="0" customWidth="1"/>
-    <col min="6" max="6" width="23.4375" style="0" customWidth="1"/>
-    <col min="7" max="7" width="23.4375" style="0" customWidth="1"/>
-    <col min="8" max="8" width="23.4375" style="0" customWidth="1"/>
-    <col min="9" max="9" width="23.4375" style="0" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="23.43"/>
   </cols>
   <sheetData>
-    <row r="3" ht="15">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -425,30 +386,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="15">
-      <c r="C7" s="5" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="15">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -471,7 +432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="15">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
@@ -494,78 +455,87 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="15">
-      <c r="C10" s="6" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" ht="15">
-      <c r="D11">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0" t="n">
+        <f aca="true">INDEX(OFFSET(ItemType!$D$11,0,0,COUNTA(ItemType!D:D),2),MATCH($H11,OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E),1),0),1)</f>
         <v>1</v>
       </c>
-      <c r="H11"/>
-      <c r="I11" t="s">
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I11:K11 H12:K14" type="none">
+      <formula1>OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H11" type="list">
+      <formula1>OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C3:E10"/>
+  <dimension ref="C3:E13"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="15.625" style="0" customWidth="1"/>
-    <col min="4" max="4" width="23.4375" style="0" customWidth="1"/>
-    <col min="5" max="5" width="23.4375" style="0" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="23.43"/>
   </cols>
   <sheetData>
-    <row r="3" ht="15">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="15">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -581,18 +551,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="15">
-      <c r="C7" s="5" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -603,7 +573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="15">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
@@ -614,30 +584,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="15">
-      <c r="C10" s="6" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11"/>
-      <c r="E11"/>
     </row>
   </sheetData>
-  <printOptions/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">{}</t>
@@ -223,8 +226,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -312,7 +316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,6 +334,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,10 +369,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="23.43"/>
@@ -476,26 +484,32 @@
       <c r="F11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="5" t="n">
         <f aca="true">INDEX(OFFSET(ItemType!$D$11,0,0,COUNTA(ItemType!D:D),2),MATCH($H11,OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E),1),0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="I11" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I11:K11 H12:K14" type="none">
-      <formula1>OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))</formula1>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I11:K12 H13:K14" type="none">
+      <formula1>OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!I:I))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G11 G12:H12" type="none">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H11" type="list">
@@ -519,17 +533,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C3:E13"/>
+  <dimension ref="C3:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="23.43"/>
@@ -540,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,7 +626,15 @@
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
@@ -1,107 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr/>
+  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Item" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ItemType" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Item" sheetId="1" r:id="rId2"/>
+    <sheet name="ItemType" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateDelta="0.001"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
     <comment ref="D7" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="游ゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">empty description</t>
-        </r>
+        <t xml:space="preserve">empty description</t>
       </text>
     </comment>
     <comment ref="E7" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="游ゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">empty description</t>
-        </r>
+        <t xml:space="preserve">empty description</t>
       </text>
     </comment>
     <comment ref="F7" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="游ゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">empty description</t>
-        </r>
+        <t xml:space="preserve">empty description</t>
       </text>
     </comment>
     <comment ref="G7" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="游ゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">empty description</t>
-        </r>
+        <t xml:space="preserve">empty description</t>
       </text>
     </comment>
     <comment ref="H7" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="游ゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">empty description</t>
-        </r>
+        <t xml:space="preserve">empty description</t>
       </text>
     </comment>
     <comment ref="I7" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="游ゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">empty description</t>
-        </r>
+        <t xml:space="preserve">empty description</t>
       </text>
     </comment>
   </commentList>
@@ -109,35 +61,19 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
     <comment ref="D7" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="游ゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">empty description</t>
-        </r>
+        <t xml:space="preserve">empty description</t>
       </text>
     </comment>
     <comment ref="E7" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="游ゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">empty description</t>
-        </r>
+        <t xml:space="preserve">empty description</t>
       </text>
     </comment>
   </commentList>
@@ -145,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="26">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -220,12 +156,15 @@
   </si>
   <si>
     <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
@@ -262,7 +201,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,69 +220,166 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <diagonal/>
+    </border>
+    <border>
+      <right/>
+      <top/>
+      <diagonal/>
+    </border>
+    <border>
+      <top/>
+      <diagonal/>
+    </border>
+    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="10">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -357,28 +393,38 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="C3:I14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="23.43"/>
+    <col min="3" max="3" width="15.625" style="0" customWidth="1"/>
+    <col min="4" max="4" width="23.4375" style="0" customWidth="1"/>
+    <col min="5" max="5" width="23.4375" style="0" customWidth="1"/>
+    <col min="6" max="6" width="23.4375" style="0" customWidth="1"/>
+    <col min="7" max="7" width="23.4375" style="0" customWidth="1"/>
+    <col min="8" max="8" width="23.4375" style="0" customWidth="1"/>
+    <col min="9" max="9" width="23.4375" style="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="15">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -386,7 +432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="15">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -394,30 +440,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="2" t="s">
+    <row r="7" ht="15">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="15">
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -440,7 +486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="15">
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
@@ -463,30 +509,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="3" t="s">
+    <row r="10" ht="15">
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="n">
+      <c r="D10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="5" t="n">
-        <f aca="true">INDEX(OFFSET(ItemType!$D$11,0,0,COUNTA(ItemType!D:D),2),MATCH($H11,OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E),1),0),1)</f>
-        <v>4</v>
+      <c r="G11" s="5">
+        <f>INDEX(OFFSET(ItemType!$D$11,0,0,COUNTA(ItemType!D:D),2),MATCH($H11,OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E),1),0),1)</f>
+        <v/>
       </c>
       <c r="H11" s="6" t="s">
         <v>21</v>
@@ -495,61 +551,114 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="12.8">
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" ht="12.8"/>
+    <row r="14" ht="12.8"/>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I11:K12 H13:K14" type="none">
-      <formula1>OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!I:I))</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G11 G12:H12" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H11" type="list">
-      <formula1>OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))</formula1>
-      <formula2>0</formula2>
+  <dataValidations disablePrompts="0" count="21">
+    <dataValidation type="none" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="I11:K12 H13:K14">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!I:I))]]></formula1>
+      <formula2><![CDATA[0]]></formula2>
+    </dataValidation>
+    <dataValidation type="none" errorStyle="stop" imeMode="noControl" operator="equal" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="G11 G12:H12">
+      <formula1><![CDATA[0]]></formula1>
+      <formula2><![CDATA[0]]></formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+      <formula2><![CDATA[0]]></formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="23.43"/>
+    <col min="3" max="3" width="15.625" style="0" customWidth="1"/>
+    <col min="4" max="4" width="23.4375" style="0" customWidth="1"/>
+    <col min="5" max="5" width="23.4375" style="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="15">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="15">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -565,18 +674,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="2" t="s">
+    <row r="7" ht="15">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="15">
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -587,7 +696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="15">
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
@@ -598,53 +707,58 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="3" t="s">
+    <row r="10" ht="15">
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="n">
+      <c r="D10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="15">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="n">
+    <row r="12" ht="15">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="n">
+    <row r="13" ht="15">
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="n">
+    <row r="14" ht="15">
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="27">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Version:</t>
   </si>
 </sst>
 </file>
@@ -424,6 +427,14 @@
     <col min="9" max="9" width="23.4375" style="0" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+    </row>
     <row r="3" ht="15">
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -559,7 +570,7 @@
     <row r="13" ht="12.8"/>
     <row r="14" ht="12.8"/>
   </sheetData>
-  <dataValidations disablePrompts="0" count="21">
+  <dataValidations disablePrompts="0" count="22">
     <dataValidation type="none" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="I11:K12 H13:K14">
       <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!I:I))]]></formula1>
       <formula2><![CDATA[0]]></formula2>
@@ -571,6 +582,9 @@
     <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
       <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
       <formula2><![CDATA[0]]></formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
       <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
@@ -658,6 +672,14 @@
     <col min="5" max="5" width="23.4375" style="0" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+    </row>
     <row r="3" ht="15">
       <c r="C3" s="1" t="s">
         <v>0</v>

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master2.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="28">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t xml:space="preserve">Version:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="15">
@@ -570,7 +573,7 @@
     <row r="13" ht="12.8"/>
     <row r="14" ht="12.8"/>
   </sheetData>
-  <dataValidations disablePrompts="0" count="22">
+  <dataValidations disablePrompts="0" count="25">
     <dataValidation type="none" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="I11:K12 H13:K14">
       <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!I:I))]]></formula1>
       <formula2><![CDATA[0]]></formula2>
@@ -582,6 +585,15 @@
     <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
       <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
       <formula2><![CDATA[0]]></formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
+      <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" sqref="H11">
       <formula1><![CDATA[OFFSET(ItemType!$E$11,0,0,COUNTA(ItemType!E:E))]]></formula1>
@@ -677,7 +689,7 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="15">
